--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="13380" windowHeight="4008"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="13380" windowHeight="4008" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Total Tests</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Win Ratio</t>
   </si>
 </sst>
 </file>
@@ -379,11 +382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40585856"/>
-        <c:axId val="63591168"/>
+        <c:axId val="193931136"/>
+        <c:axId val="193970176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40585856"/>
+        <c:axId val="193931136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63591168"/>
+        <c:crossAx val="193970176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -419,7 +422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63591168"/>
+        <c:axId val="193970176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40585856"/>
+        <c:crossAx val="193931136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6734,11 +6737,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210368768"/>
-        <c:axId val="210375040"/>
+        <c:axId val="194391040"/>
+        <c:axId val="194409600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210368768"/>
+        <c:axId val="194391040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,12 +6770,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210375040"/>
+        <c:crossAx val="194409600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210375040"/>
+        <c:axId val="194409600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6802,7 +6805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210368768"/>
+        <c:crossAx val="194391040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9929,20 +9932,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209691392"/>
-        <c:axId val="209693312"/>
+        <c:axId val="194471424"/>
+        <c:axId val="194472960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209691392"/>
+        <c:axId val="194471424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Game number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209693312"/>
+        <c:crossAx val="194472960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9950,18 +9972,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209693312"/>
+        <c:axId val="194472960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Score</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (points)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209691392"/>
+        <c:crossAx val="194471424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10417,8 +10463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10747,6 +10793,13 @@
       <c r="C14">
         <f>SUM(B$2:B14) / A14</f>
         <v>24.46153846153846</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <f>F13/SUM(F11:F13)</f>
+        <v>0.86251236399604347</v>
       </c>
       <c r="J14" t="str">
         <f>"-30 &lt; x &lt; -20"</f>
@@ -23904,7 +23957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
